--- a/biology/Médecine/Muscle_grand_pectoral/Muscle_grand_pectoral.xlsx
+++ b/biology/Médecine/Muscle_grand_pectoral/Muscle_grand_pectoral.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le muscle grand pectoral est un muscle de la ceinture du membre thoracique (ou supérieur ou encore ceinture scapulaire[1]). Situé sous la peau, ce muscle est large, triangulaire et puissant, c'est le plus volumineux du membre thoracique. Le grand pectoral est lié à la paroi antérieure du creux axillaire, dans un plan superficiel[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le muscle grand pectoral est un muscle de la ceinture du membre thoracique (ou supérieur ou encore ceinture scapulaire). Situé sous la peau, ce muscle est large, triangulaire et puissant, c'est le plus volumineux du membre thoracique. Le grand pectoral est lié à la paroi antérieure du creux axillaire, dans un plan superficiel.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Origine (insertion proximale)</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Il nait d'origines multiples et étendues : 
-de la moitié (interne) du bord antérieur de la clavicule[3] : partie claviculaire,
+de la moitié (interne) du bord antérieur de la clavicule : partie claviculaire,
 sur une très grande moitié supérieure du sternum et les cartilages costaux de la 2e à la 6e côte : partie sterno-costale
 de la partie antérieure de la gaine du muscle droit de l'abdomen : partie abdominale.</t>
         </is>
@@ -544,7 +558,9 @@
           <t>Trajet</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ventre épais triangulaire.
 Convergence des trois faisceaux :
@@ -586,7 +602,9 @@
           <t>Terminaison (insertion distale)</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les trois faisceaux se terminent en deux, qui s'insèrent à la face profonde du sillon intertuberculaire, et sur la partie antéro-latérale du grand tubercule de l'humérus, nous trouvons :
 le faisceau supérieur qui est formé des fibres claviculaires et de la moitié supérieures des fibres sternales ;
@@ -620,7 +638,9 @@
           <t>Innervation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Il est innervé par les nerfs pectoraux latéral et médial, issus de l'anse des pectoraux (Racines C5, C6, (C7), C8 et Th1).
 Les derniers travaux anatomiques[réf. souhaitée] ont montré que le muscle grand pectoral était innervé par trois branches nerveuses :
@@ -654,9 +674,11 @@
           <t>Vascularisation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est vascularisé par l'artère thoraco-acromiale et l'artère thoracique latérale[4].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est vascularisé par l'artère thoraco-acromiale et l'artère thoracique latérale.
 </t>
         </is>
       </c>
@@ -685,9 +707,11 @@
           <t>Action</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Les actions du muscle grand pectoral sont les suivantes[4] :
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Les actions du muscle grand pectoral sont les suivantes :
 il est principalement adducteur du bras au niveau de l'épaule,
 Il est aussi rotateur médial (anciennement : interne) de l'humérus,
 sa partie claviculaire aide à l'antépulsion (flexion) du bras ainsi qu'à l'adduction au-delà de la ligne médiane (ligne passant par l'axe du corps),
@@ -720,10 +744,12 @@
           <t>Musculation</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est courant de développer le volume, ou la force, des pectoraux (comme de nombreux autres muscles : biceps, triceps, épaules, trapèzes…) à l'aide d'exercices de musculation, exemple le plus courant et le plus simple : les « pompes » (ou push-ups en anglais).
-Un autre exercice employé couramment par les culturistes est le développé couché avec une barre. Dans cet exercice, qui est aussi un mouvement de la force athlétique, le grand pectoral intervient comme muscle moteur[5].
+Un autre exercice employé couramment par les culturistes est le développé couché avec une barre. Dans cet exercice, qui est aussi un mouvement de la force athlétique, le grand pectoral intervient comme muscle moteur.
 </t>
         </is>
       </c>
